--- a/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
+++ b/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,7 +1083,7 @@
         <v>85.26000000000001</v>
       </c>
       <c r="C38">
-        <v>87.5</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="D38">
         <v>96.78</v>
@@ -1100,7 +1103,7 @@
         <v>86.52</v>
       </c>
       <c r="C39">
-        <v>87.47</v>
+        <v>87.48</v>
       </c>
       <c r="D39">
         <v>98.20999999999999</v>
@@ -1117,7 +1120,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="C40">
-        <v>88.34999999999999</v>
+        <v>88.36</v>
       </c>
       <c r="D40">
         <v>98.64</v>
@@ -1134,7 +1137,7 @@
         <v>93.70999999999999</v>
       </c>
       <c r="C41">
-        <v>89.31</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="D41">
         <v>106.37</v>
@@ -1151,7 +1154,7 @@
         <v>84.28</v>
       </c>
       <c r="C42">
-        <v>86.63</v>
+        <v>86.64</v>
       </c>
       <c r="D42">
         <v>95.66</v>
@@ -1185,7 +1188,7 @@
         <v>90.88</v>
       </c>
       <c r="C44">
-        <v>92.22</v>
+        <v>92.23</v>
       </c>
       <c r="D44">
         <v>103.16</v>
@@ -1202,7 +1205,7 @@
         <v>95.69</v>
       </c>
       <c r="C45">
-        <v>91.48999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="D45">
         <v>108.61</v>
@@ -1259,7 +1262,7 @@
         <v>90.45999999999999</v>
       </c>
       <c r="C48">
-        <v>91.63</v>
+        <v>91.64</v>
       </c>
       <c r="D48">
         <v>102.68</v>
@@ -1279,7 +1282,7 @@
         <v>99.27</v>
       </c>
       <c r="C49">
-        <v>95.33</v>
+        <v>95.34</v>
       </c>
       <c r="D49">
         <v>112.68</v>
@@ -1299,7 +1302,7 @@
         <v>94.73</v>
       </c>
       <c r="C50">
-        <v>95.23</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="D50">
         <v>107.52</v>
@@ -1319,7 +1322,7 @@
         <v>95.77</v>
       </c>
       <c r="C51">
-        <v>96.7</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="D51">
         <v>108.71</v>
@@ -1339,7 +1342,7 @@
         <v>93.97</v>
       </c>
       <c r="C52">
-        <v>96.18000000000001</v>
+        <v>96.19</v>
       </c>
       <c r="D52">
         <v>106.67</v>
@@ -1359,7 +1362,7 @@
         <v>101.23</v>
       </c>
       <c r="C53">
-        <v>97.54000000000001</v>
+        <v>97.55</v>
       </c>
       <c r="D53">
         <v>114.9</v>
@@ -1379,7 +1382,7 @@
         <v>98.37</v>
       </c>
       <c r="C54">
-        <v>100.6</v>
+        <v>100.61</v>
       </c>
       <c r="D54">
         <v>111.65</v>
@@ -1399,7 +1402,7 @@
         <v>97.11</v>
       </c>
       <c r="C55">
-        <v>97.81</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="D55">
         <v>110.23</v>
@@ -1419,7 +1422,7 @@
         <v>98.81999999999999</v>
       </c>
       <c r="C56">
-        <v>100.8</v>
+        <v>100.81</v>
       </c>
       <c r="D56">
         <v>112.17</v>
@@ -1439,7 +1442,7 @@
         <v>104.39</v>
       </c>
       <c r="C57">
-        <v>100.54</v>
+        <v>100.55</v>
       </c>
       <c r="D57">
         <v>118.49</v>
@@ -1499,7 +1502,7 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C60">
-        <v>99.05</v>
+        <v>99.06</v>
       </c>
       <c r="D60">
         <v>111.02</v>
@@ -1559,7 +1562,7 @@
         <v>100.96</v>
       </c>
       <c r="C63">
-        <v>102.29</v>
+        <v>102.27</v>
       </c>
       <c r="D63">
         <v>113.58</v>
@@ -1599,7 +1602,7 @@
         <v>103.38</v>
       </c>
       <c r="C65">
-        <v>99.7</v>
+        <v>99.72</v>
       </c>
       <c r="D65">
         <v>116.3</v>
@@ -1619,7 +1622,7 @@
         <v>100.31</v>
       </c>
       <c r="C66">
-        <v>100.78</v>
+        <v>100.79</v>
       </c>
       <c r="D66">
         <v>112.43</v>
@@ -1639,7 +1642,7 @@
         <v>98.69</v>
       </c>
       <c r="C67">
-        <v>99.13</v>
+        <v>99.11</v>
       </c>
       <c r="D67">
         <v>110.12</v>
@@ -1659,7 +1662,7 @@
         <v>97.73999999999999</v>
       </c>
       <c r="C68">
-        <v>98.44</v>
+        <v>98.39</v>
       </c>
       <c r="D68">
         <v>109.37</v>
@@ -1679,7 +1682,7 @@
         <v>101.66</v>
       </c>
       <c r="C69">
-        <v>98.45</v>
+        <v>98.44</v>
       </c>
       <c r="D69">
         <v>113.01</v>
@@ -1699,7 +1702,7 @@
         <v>93.84999999999999</v>
       </c>
       <c r="C70">
-        <v>94.75</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="E70">
         <v>96.16</v>
@@ -1716,7 +1719,7 @@
         <v>96.14</v>
       </c>
       <c r="C71">
-        <v>97.7</v>
+        <v>97.69</v>
       </c>
       <c r="E71">
         <v>95.70999999999999</v>
@@ -1733,7 +1736,7 @@
         <v>100.11</v>
       </c>
       <c r="C72">
-        <v>100.95</v>
+        <v>100.93</v>
       </c>
       <c r="E72">
         <v>96.54000000000001</v>
@@ -1781,7 +1784,7 @@
         <v>101.16</v>
       </c>
       <c r="C75">
-        <v>102.13</v>
+        <v>102.15</v>
       </c>
       <c r="E75">
         <v>100.14</v>
@@ -1795,7 +1798,7 @@
         <v>99.54000000000001</v>
       </c>
       <c r="C76">
-        <v>101.39</v>
+        <v>101.31</v>
       </c>
       <c r="E76">
         <v>96.34</v>
@@ -1823,7 +1826,7 @@
         <v>98.84</v>
       </c>
       <c r="C78">
-        <v>100.13</v>
+        <v>100.15</v>
       </c>
       <c r="E78">
         <v>97.97</v>
@@ -1837,7 +1840,7 @@
         <v>100.34</v>
       </c>
       <c r="C79">
-        <v>102.18</v>
+        <v>102.24</v>
       </c>
       <c r="E79">
         <v>97.97</v>
@@ -1851,7 +1854,7 @@
         <v>100.63</v>
       </c>
       <c r="C80">
-        <v>102.05</v>
+        <v>102.01</v>
       </c>
       <c r="E80">
         <v>97.5</v>
@@ -1865,7 +1868,7 @@
         <v>105.4</v>
       </c>
       <c r="C81">
-        <v>101.55</v>
+        <v>101.53</v>
       </c>
       <c r="E81">
         <v>100.33</v>
@@ -1879,7 +1882,7 @@
         <v>101.49</v>
       </c>
       <c r="C82">
-        <v>101.74</v>
+        <v>101.78</v>
       </c>
       <c r="E82">
         <v>100.13</v>
@@ -1890,13 +1893,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>96.06999999999999</v>
+        <v>96.06</v>
       </c>
       <c r="C83">
-        <v>97.90000000000001</v>
+        <v>97.94</v>
       </c>
       <c r="E83">
-        <v>91.89</v>
+        <v>91.91</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1907,7 +1910,7 @@
         <v>98.43000000000001</v>
       </c>
       <c r="C84">
-        <v>99.06</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="E84">
         <v>97.31999999999999</v>
@@ -1921,7 +1924,7 @@
         <v>105.11</v>
       </c>
       <c r="C85">
-        <v>101.08</v>
+        <v>101.06</v>
       </c>
       <c r="E85">
         <v>103.69</v>
@@ -1935,10 +1938,24 @@
         <v>100.6</v>
       </c>
       <c r="C86">
-        <v>102.07</v>
+        <v>102.11</v>
       </c>
       <c r="E86">
         <v>100.76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>100.71</v>
+      </c>
+      <c r="C87">
+        <v>102.84</v>
+      </c>
+      <c r="E87">
+        <v>102.57</v>
       </c>
     </row>
   </sheetData>
